--- a/cosimulation/static/demo/1_ev_impact/ev_forecast.xlsx
+++ b/cosimulation/static/demo/1_ev_impact/ev_forecast.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mygreencar/git/CyDER/cosimulation/static/demo/1_ev_impact/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Jonathan\Desktop\CyDER\cosimulation\static\demo\1_ev_impact\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5000" yWindow="-16360" windowWidth="37040" windowHeight="14780" tabRatio="500"/>
+    <workbookView xWindow="-4995" yWindow="-16365" windowWidth="37035" windowHeight="14775" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="node_occupancy" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -47,9 +44,6 @@
     <t>load_name</t>
   </si>
   <si>
-    <t>load_800043869</t>
-  </si>
-  <si>
     <t>itinerary.csv</t>
   </si>
   <si>
@@ -66,6 +60,9 @@
   </si>
   <si>
     <t>static/demo/1_ev_impact/vehicle_parameters.xlsx</t>
+  </si>
+  <si>
+    <t>load_314592839851</t>
   </si>
 </sst>
 </file>
@@ -158,6 +155,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -429,21 +429,21 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -454,27 +454,27 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
